--- a/target/Dados.xlsx
+++ b/target/Dados.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{EAE1314A-2A49-4387-8B7C-4FA46601C1FE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B42CA694-9D70-47A3-BA0C-BADE5326ACFA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="20595" windowHeight="11820" xr2:uid="{3811DB8B-1056-40F0-864D-B037B3637F44}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="20655" windowHeight="11820" xr2:uid="{3811DB8B-1056-40F0-864D-B037B3637F44}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>joice</t>
   </si>
@@ -29,9 +29,6 @@
     <t>abreu</t>
   </si>
   <si>
-    <t>JoiceNaatalice</t>
-  </si>
-  <si>
     <t>joice@bdd.com.br</t>
   </si>
   <si>
@@ -96,6 +93,18 @@
   </si>
   <si>
     <t>HP ZEM WHQOQ</t>
+  </si>
+  <si>
+    <t>(11)941707376</t>
+  </si>
+  <si>
+    <t>Jo12345</t>
+  </si>
+  <si>
+    <t>joiceAbreu</t>
+  </si>
+  <si>
+    <t>JoiceGGG</t>
   </si>
 </sst>
 </file>
@@ -135,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -169,11 +178,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -187,6 +214,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0791D461-9D5A-4BBE-8A4B-109CA855029A}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,54 +554,54 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="M1" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -580,29 +609,39 @@
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
-        <v>11941707376</v>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="M2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/target/Dados.xlsx
+++ b/target/Dados.xlsx
@@ -3,15 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B42CA694-9D70-47A3-BA0C-BADE5326ACFA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joice.abreu\br.com.Rsinet.Hub.BDD\target\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573BB980-5742-4B12-B012-57F31FF03FAC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="20655" windowHeight="11820" xr2:uid="{3811DB8B-1056-40F0-864D-B037B3637F44}"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="20490" windowHeight="7875" xr2:uid="{3811DB8B-1056-40F0-864D-B037B3637F44}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>joice</t>
   </si>
@@ -105,6 +109,9 @@
   </si>
   <si>
     <t>JoiceGGG</t>
+  </si>
+  <si>
+    <t>JOOCEAA</t>
   </si>
 </sst>
 </file>
@@ -144,7 +151,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -196,11 +203,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -216,6 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0791D461-9D5A-4BBE-8A4B-109CA855029A}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,6 +663,11 @@
         <v>27</v>
       </c>
     </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
